--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.57827209355883025</v>
+        <v>0.57827209418274295</v>
       </c>
       <c r="C2">
-        <v>1.7390732600241543</v>
+        <v>1.7390732558895357</v>
       </c>
       <c r="D2">
-        <v>3.0595068592543204</v>
+        <v>3.0595068614630465</v>
       </c>
       <c r="E2">
-        <v>4.1307032821389802</v>
+        <v>4.1307032838035793</v>
       </c>
       <c r="F2">
-        <v>1.3624566977097181</v>
+        <v>1.3624566979017141</v>
       </c>
       <c r="G2">
-        <v>0.41184061136389633</v>
+        <v>0.41184060634229458</v>
       </c>
       <c r="H2">
-        <v>1.2552378137302806</v>
+        <v>1.2552378050085149</v>
       </c>
       <c r="I2">
-        <v>1.6260210188023114</v>
+        <v>1.6260210184330919</v>
       </c>
       <c r="J2">
-        <v>3.2296426703532006</v>
+        <v>3.2296426695583405</v>
       </c>
       <c r="K2">
-        <v>0.97900259994433203</v>
+        <v>0.9790025976869523</v>
       </c>
       <c r="L2">
-        <v>0.90769177938625489</v>
+        <v>0.90769178844515597</v>
       </c>
       <c r="M2">
-        <v>-1.4436026847672263</v>
+        <v>-1.4436026911022566</v>
       </c>
       <c r="N2">
-        <v>2.0574746402798052</v>
+        <v>2.0574746352767246</v>
       </c>
       <c r="O2">
-        <v>2.0738618266726476</v>
+        <v>2.0738618308994425</v>
       </c>
       <c r="P2">
-        <v>2.5646492173988378</v>
+        <v>2.5646492095465598</v>
       </c>
       <c r="Q2">
-        <v>9.0524259509506932E-2</v>
+        <v>9.0524257857565085E-2</v>
       </c>
       <c r="R2">
-        <v>-0.92012669773406486</v>
+        <v>-0.92012669354727072</v>
       </c>
       <c r="S2">
-        <v>3.7579009525128306</v>
+        <v>3.7579009211397403</v>
       </c>
       <c r="T2">
-        <v>3.1392211076384262</v>
+        <v>3.1392211085003687</v>
       </c>
       <c r="U2">
-        <v>-5.4040177314535628E-2</v>
+        <v>-5.404018140061248E-2</v>
       </c>
       <c r="V2">
-        <v>1.2788900879569165</v>
+        <v>1.2788900805654435</v>
       </c>
       <c r="W2">
-        <v>-0.69681165710107573</v>
+        <v>-0.69681167292838064</v>
       </c>
       <c r="X2">
-        <v>0.38601238134414206</v>
+        <v>0.38601238198607785</v>
       </c>
       <c r="Y2">
-        <v>3.5490294038752999</v>
+        <v>3.5490294002208636</v>
       </c>
       <c r="Z2">
-        <v>2.0420581144898224</v>
+        <v>2.042058109454032</v>
       </c>
       <c r="AA2">
-        <v>4.8269964735986646</v>
+        <v>4.8269964879828953</v>
       </c>
       <c r="AB2">
-        <v>4.0935687538749006</v>
+        <v>4.0935687429141803</v>
       </c>
       <c r="AC2">
-        <v>0.67941953831662949</v>
+        <v>0.67941953226930529</v>
       </c>
       <c r="AD2">
-        <v>5.1979141629621664</v>
+        <v>5.1979141565236402</v>
       </c>
       <c r="AE2">
-        <v>1.6152549487292975</v>
+        <v>1.6152549498961097</v>
       </c>
       <c r="AF2">
-        <v>2.3133497715045781</v>
+        <v>2.3133497625900343</v>
       </c>
       <c r="AG2">
-        <v>2.6596152116137621</v>
+        <v>2.6596152021053783</v>
       </c>
       <c r="AH2">
-        <v>2.5735330575631759</v>
+        <v>2.5735330537572936</v>
       </c>
       <c r="AI2">
-        <v>4.8916148439054226</v>
+        <v>4.8916148136228381</v>
       </c>
       <c r="AJ2">
-        <v>2.4997633404307367</v>
+        <v>2.4997633308690705</v>
       </c>
       <c r="AK2">
-        <v>2.9815094756637373</v>
+        <v>2.981509468856272</v>
       </c>
       <c r="AL2">
-        <v>-0.40234945025170088</v>
+        <v>-0.40234945884041068</v>
       </c>
       <c r="AM2">
-        <v>2.8616854995231016</v>
+        <v>2.8616854811904409</v>
       </c>
       <c r="AN2">
-        <v>2.809674277780656</v>
+        <v>2.8096742695001473</v>
       </c>
       <c r="AO2">
-        <v>4.7524682848810116</v>
+        <v>4.7524683139875119</v>
       </c>
       <c r="AP2">
-        <v>2.7747202225369123</v>
+        <v>2.7747202175636922</v>
       </c>
       <c r="AQ2">
-        <v>-0.38639290985819874</v>
+        <v>-0.3863929271143855</v>
       </c>
       <c r="AR2">
-        <v>4.0523396461262484</v>
+        <v>4.0523396444780468</v>
       </c>
       <c r="AS2">
-        <v>4.705831448158972</v>
+        <v>4.7058314323549144</v>
       </c>
       <c r="AT2">
-        <v>1.9452776896534205</v>
+        <v>1.9452777097538985</v>
       </c>
       <c r="AU2">
-        <v>2.4049115649513344</v>
+        <v>2.4049115537103627</v>
       </c>
       <c r="AV2">
-        <v>2.8281841104972796</v>
+        <v>2.8281841199950435</v>
       </c>
       <c r="AW2">
-        <v>1.4089484206420062</v>
+        <v>1.4089484009383082</v>
       </c>
       <c r="AX2">
-        <v>4.3487247326492628</v>
+        <v>4.348724718013421</v>
       </c>
       <c r="AY2">
-        <v>4.740717207018557</v>
+        <v>4.7407171962166723</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.7717248434579744</v>
+        <v>1.7717248128992023</v>
       </c>
       <c r="C3">
-        <v>1.6527588668153861</v>
+        <v>1.6527588625563849</v>
       </c>
       <c r="D3">
-        <v>3.4844254038466125</v>
+        <v>3.4844253832631447</v>
       </c>
       <c r="E3">
-        <v>3.1389908425447768</v>
+        <v>3.1389908381768605</v>
       </c>
       <c r="F3">
-        <v>1.2848182753785446</v>
+        <v>1.2848182698940034</v>
       </c>
       <c r="G3">
-        <v>2.7082731620514595</v>
+        <v>2.7082731579343258</v>
       </c>
       <c r="H3">
-        <v>-0.52935006523351402</v>
+        <v>-0.52935006291649189</v>
       </c>
       <c r="I3">
-        <v>0.65492450460276597</v>
+        <v>0.65492450157862214</v>
       </c>
       <c r="J3">
-        <v>3.6336408697465785</v>
+        <v>3.6336408570116996</v>
       </c>
       <c r="K3">
-        <v>4.8653286281763259</v>
+        <v>4.8653286267025946</v>
       </c>
       <c r="L3">
-        <v>2.9899291537379749</v>
+        <v>2.9899291474747547</v>
       </c>
       <c r="M3">
-        <v>-3.3216494683733402E-2</v>
+        <v>-3.333044988321697E-2</v>
       </c>
       <c r="N3">
-        <v>1.6688906401766239</v>
+        <v>1.6688906381123014</v>
       </c>
       <c r="O3">
-        <v>-2.6782641575569612</v>
+        <v>-2.6782641567363159</v>
       </c>
       <c r="P3">
-        <v>2.9134055586525305</v>
+        <v>2.9134055468808215</v>
       </c>
       <c r="Q3">
-        <v>1.0689586344850948</v>
+        <v>1.0689586276465455</v>
       </c>
       <c r="R3">
-        <v>0.67302122257660357</v>
+        <v>0.67302120142693267</v>
       </c>
       <c r="S3">
-        <v>3.1627970746108165</v>
+        <v>3.1627970687633282</v>
       </c>
       <c r="T3">
-        <v>3.2910783563284434</v>
+        <v>3.291078351304292</v>
       </c>
       <c r="U3">
-        <v>1.7994179325835216</v>
+        <v>1.7994179259918606</v>
       </c>
       <c r="V3">
-        <v>1.7741877934565968</v>
+        <v>1.7741877956415499</v>
       </c>
       <c r="W3">
-        <v>0.30397438346870359</v>
+        <v>0.30397437330480032</v>
       </c>
       <c r="X3">
-        <v>-0.67316852809368621</v>
+        <v>-0.67316853162121315</v>
       </c>
       <c r="Y3">
-        <v>4.5217030757952559</v>
+        <v>4.5217030656736164</v>
       </c>
       <c r="Z3">
-        <v>2.450442102112905</v>
+        <v>2.450442097689026</v>
       </c>
       <c r="AA3">
-        <v>4.2995481595653269</v>
+        <v>4.2995481668137199</v>
       </c>
       <c r="AB3">
-        <v>3.8050209045794863</v>
+        <v>3.8050208948390942</v>
       </c>
       <c r="AC3">
-        <v>4.7593203805882771</v>
+        <v>4.7593203556387902</v>
       </c>
       <c r="AD3">
-        <v>5.3679812975598349</v>
+        <v>5.3679812667446427</v>
       </c>
       <c r="AE3">
-        <v>3.2274881596184795</v>
+        <v>3.2274881369200337</v>
       </c>
       <c r="AF3">
-        <v>2.8498907371622821</v>
+        <v>2.8498907230522019</v>
       </c>
       <c r="AG3">
-        <v>1.9755440369467046</v>
+        <v>1.9755440269470959</v>
       </c>
       <c r="AH3">
-        <v>1.2938535276086778</v>
+        <v>1.2938535197814378</v>
       </c>
       <c r="AI3">
-        <v>9.1003925902128646</v>
+        <v>9.1003926096757031</v>
       </c>
       <c r="AJ3">
-        <v>4.9561820890505146</v>
+        <v>4.9561820738195639</v>
       </c>
       <c r="AK3">
-        <v>3.3146275537310652</v>
+        <v>3.3146275191367334</v>
       </c>
       <c r="AL3">
-        <v>2.2713936593605917</v>
+        <v>2.2713936471075376</v>
       </c>
       <c r="AM3">
-        <v>3.1385564648621238</v>
+        <v>3.1385564478826642</v>
       </c>
       <c r="AN3">
-        <v>-1.087245776798067</v>
+        <v>-1.0872457820799217</v>
       </c>
       <c r="AO3">
-        <v>5.0441087192812661</v>
+        <v>5.0441086806787192</v>
       </c>
       <c r="AP3">
-        <v>0.80565098904800336</v>
+        <v>0.80565098198635432</v>
       </c>
       <c r="AQ3">
-        <v>2.171061194751251</v>
+        <v>2.1710611867970195</v>
       </c>
       <c r="AR3">
-        <v>5.3094175605664509</v>
+        <v>5.3094175794401384</v>
       </c>
       <c r="AS3">
-        <v>3.4553290347473391</v>
+        <v>3.4553290406566668</v>
       </c>
       <c r="AT3">
-        <v>3.0317548223759996</v>
+        <v>3.0317548051467478</v>
       </c>
       <c r="AU3">
-        <v>1.8515340648571923</v>
+        <v>1.8515340465864523</v>
       </c>
       <c r="AV3">
-        <v>1.8284154780496249</v>
+        <v>1.828415459088466</v>
       </c>
       <c r="AW3">
-        <v>1.6675809272946702</v>
+        <v>1.6675807250148569</v>
       </c>
       <c r="AX3">
-        <v>2.9557218351916741</v>
+        <v>2.9557217886930673</v>
       </c>
       <c r="AY3">
-        <v>5.5440400478477709</v>
+        <v>5.5440400371160656</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_trial_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>0.57827209418274295</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.7390732558895357</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3.0595068614630465</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>4.1307032838035793</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.3624566979017141</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.41184060634229458</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.2552378050085149</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.6260210184330919</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>3.2296426695583405</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9790025976869523</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.90769178844515597</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-1.4436026911022566</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>2.0574746352767246</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>2.0738618308994425</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>2.5646492095465598</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>9.0524257857565085E-2</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-0.92012669354727072</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>3.7579009211397403</v>
+        <v>2.2115670792067914</v>
       </c>
       <c r="T2">
         <v>3.1392211085003687</v>
@@ -588,55 +477,55 @@
         <v>2.042058109454032</v>
       </c>
       <c r="AA2">
-        <v>4.8269964879828953</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>4.0935687429141803</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.67941953226930529</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>5.1979141565236402</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>1.6152549498961097</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>2.3133497625900343</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>2.6596152021053783</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>2.5735330537572936</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>4.8916148136228381</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>2.4997633308690705</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>2.981509468856272</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-0.40234945884041068</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>2.8616854811904409</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>2.8096742695001473</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>4.7524683139875119</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.7747202175636922</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-0.3863929271143855</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>4.0523396444780468</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>1.7717248128992023</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.6527588625563849</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3.4844253832631447</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>3.1389908381768605</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.2848182698940034</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>2.7082731579343258</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>-0.52935006291649189</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.65492450157862214</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>3.6336408570116996</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>4.8653286267025946</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>2.9899291474747547</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-3.333044988321697E-2</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.6688906381123014</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>-2.6782641567363159</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>2.9134055468808215</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.0689586276465455</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.67302120142693267</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>3.1627970687633282</v>
@@ -743,55 +629,55 @@
         <v>2.450442097689026</v>
       </c>
       <c r="AA3">
-        <v>4.2995481668137199</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>3.8050208948390942</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>4.7593203556387902</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>5.3679812667446427</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>3.2274881369200337</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.8498907230522019</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>1.9755440269470959</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>1.2938535197814378</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>9.1003926096757031</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>4.9561820738195639</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>3.3146275191367334</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>2.2713936471075376</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>3.1385564478826642</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-1.0872457820799217</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>5.0441086806787192</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.80565098198635432</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>2.1710611867970195</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>5.3094175794401384</v>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,11 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0.57827209355883025</v>
-      </c>
       <c r="C2">
-        <v>1.2662660423158765</v>
-      </c>
-      <c r="D2">
-        <v>3.0595068592543204</v>
+        <v>-0.92012669354727072</v>
       </c>
       <c r="E2">
-        <v>4.1307032821389802</v>
+        <v>-0.3863929271143855</v>
       </c>
       <c r="F2">
         <v>1.3624566977097181</v>
@@ -673,16 +662,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.7717248434579744</v>
+        <v>-1.3172335172622707</v>
       </c>
       <c r="C3">
-        <v>1.6527588668153861</v>
+        <v>0.67302120142693267</v>
       </c>
       <c r="D3">
-        <v>3.4844254038466125</v>
+        <v>-0.68186776113077985</v>
       </c>
       <c r="E3">
-        <v>3.1389908425447768</v>
+        <v>2.1324821486706291</v>
       </c>
       <c r="F3">
         <v>1.2848182753785446</v>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_trial_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.57827209355883025</v>
-      </c>
-      <c r="C2">
-        <v>1.2662660423158765</v>
+        <v>1.9341576716069004</v>
       </c>
       <c r="D2">
-        <v>3.0595068592543204</v>
-      </c>
-      <c r="E2">
-        <v>4.1307032821389802</v>
+        <v>2.8616854811904409</v>
       </c>
       <c r="F2">
         <v>1.3624566977097181</v>
@@ -664,16 +653,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.7717248434579744</v>
+        <v>1.6688906381123014</v>
       </c>
       <c r="C3">
-        <v>1.6527588668153861</v>
+        <v>-1.3172335172622707</v>
       </c>
       <c r="D3">
-        <v>3.4844254038466125</v>
+        <v>3.1385564478826642</v>
       </c>
       <c r="E3">
-        <v>4.3265038299921255</v>
+        <v>-0.68186776113077985</v>
       </c>
       <c r="F3">
         <v>1.2848182753785446</v>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_trial_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,139 +513,145 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>0.57827209418274295</v>
+      </c>
+      <c r="C2">
+        <v>1.2662660254863947</v>
+      </c>
+      <c r="D2">
+        <v>3.0595068614630465</v>
+      </c>
+      <c r="E2">
+        <v>4.1307032838035793</v>
+      </c>
+      <c r="F2">
+        <v>1.3624566979017141</v>
+      </c>
+      <c r="G2">
+        <v>1.277069399728916</v>
+      </c>
+      <c r="H2">
+        <v>1.2552378050085149</v>
+      </c>
+      <c r="I2">
+        <v>2.4358016021222157</v>
+      </c>
+      <c r="J2">
+        <v>3.2296426695583405</v>
+      </c>
+      <c r="K2">
+        <v>0.9790025976869523</v>
+      </c>
+      <c r="L2">
+        <v>1.5268478787692383</v>
+      </c>
+      <c r="M2">
+        <v>-7.0811809160511718E-3</v>
+      </c>
+      <c r="N2">
         <v>1.9341576716069004</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>2.8825194939676559</v>
+      </c>
+      <c r="Q2">
+        <v>9.0524257857565085E-2</v>
+      </c>
+      <c r="R2">
+        <v>-0.92012669354727072</v>
+      </c>
+      <c r="T2">
+        <v>2.5610041793522922</v>
+      </c>
+      <c r="U2">
+        <v>-5.404018140061248E-2</v>
+      </c>
+      <c r="V2">
+        <v>1.9169851603417429</v>
+      </c>
+      <c r="W2">
+        <v>-0.69681167292838064</v>
+      </c>
+      <c r="X2">
+        <v>0.38601238198607785</v>
+      </c>
+      <c r="Y2">
+        <v>3.5490294002208636</v>
+      </c>
+      <c r="Z2">
+        <v>2.042058109454032</v>
+      </c>
+      <c r="AA2">
+        <v>4.8269964879828953</v>
+      </c>
+      <c r="AB2">
+        <v>4.0935687429141803</v>
+      </c>
+      <c r="AC2">
+        <v>0.67941953226930529</v>
+      </c>
+      <c r="AD2">
+        <v>5.1979141565236402</v>
+      </c>
+      <c r="AE2">
+        <v>1.6152549498961097</v>
+      </c>
+      <c r="AF2">
+        <v>2.3133497625900343</v>
+      </c>
+      <c r="AG2">
+        <v>2.6596152021053783</v>
+      </c>
+      <c r="AH2">
+        <v>2.5735330537572936</v>
+      </c>
+      <c r="AI2">
+        <v>4.8916148136228381</v>
+      </c>
+      <c r="AJ2">
+        <v>2.4997633308690705</v>
+      </c>
+      <c r="AK2">
+        <v>2.981509468856272</v>
+      </c>
+      <c r="AL2">
+        <v>-0.40234945884041068</v>
+      </c>
+      <c r="AM2">
         <v>2.8616854811904409</v>
       </c>
-      <c r="F2">
-        <v>1.3624566977097181</v>
-      </c>
-      <c r="G2">
-        <v>1.2770694134075093</v>
-      </c>
-      <c r="H2">
-        <v>1.2552378137302806</v>
-      </c>
-      <c r="I2">
-        <v>2.43580160000357</v>
-      </c>
-      <c r="J2">
-        <v>3.2296426703532006</v>
-      </c>
-      <c r="K2">
-        <v>0.97900259994433203</v>
-      </c>
-      <c r="L2">
-        <v>1.5268479176307861</v>
-      </c>
-      <c r="M2">
-        <v>-7.0811790896379186E-3</v>
-      </c>
-      <c r="N2">
-        <v>1.9341576783584384</v>
-      </c>
-      <c r="P2">
-        <v>2.8825195051576231</v>
-      </c>
-      <c r="Q2">
-        <v>9.0524259509506932E-2</v>
-      </c>
-      <c r="R2">
-        <v>-0.92012669773406486</v>
-      </c>
-      <c r="T2">
-        <v>2.5610041786149904</v>
-      </c>
-      <c r="U2">
-        <v>-5.4040177314535628E-2</v>
-      </c>
-      <c r="V2">
-        <v>1.9169851731491563</v>
-      </c>
-      <c r="W2">
-        <v>-0.69681165710107573</v>
-      </c>
-      <c r="X2">
-        <v>0.38601238134414206</v>
-      </c>
-      <c r="Y2">
-        <v>3.5490294038752999</v>
-      </c>
-      <c r="Z2">
-        <v>2.0420581144898224</v>
-      </c>
-      <c r="AA2">
-        <v>4.8269964735986646</v>
-      </c>
-      <c r="AB2">
-        <v>4.0935687538749006</v>
-      </c>
-      <c r="AC2">
-        <v>0.67941953831662949</v>
-      </c>
-      <c r="AD2">
-        <v>5.1979141629621664</v>
-      </c>
-      <c r="AE2">
-        <v>1.6152549487292975</v>
-      </c>
-      <c r="AF2">
-        <v>2.3133497715045781</v>
-      </c>
-      <c r="AG2">
-        <v>2.6596152116137621</v>
-      </c>
-      <c r="AH2">
-        <v>2.5735330575631759</v>
-      </c>
-      <c r="AI2">
-        <v>4.8916148439054226</v>
-      </c>
-      <c r="AJ2">
-        <v>2.4997633404307367</v>
-      </c>
-      <c r="AK2">
-        <v>2.9815094756637373</v>
-      </c>
-      <c r="AL2">
-        <v>-0.40234945025170088</v>
-      </c>
-      <c r="AM2">
-        <v>2.8616854995231016</v>
-      </c>
       <c r="AO2">
-        <v>4.7524682848810116</v>
+        <v>4.7524683139875119</v>
       </c>
       <c r="AP2">
-        <v>3.1931346880620679</v>
+        <v>3.1931346818904216</v>
       </c>
       <c r="AQ2">
-        <v>-0.38639290985819874</v>
+        <v>-0.3863929271143855</v>
       </c>
       <c r="AR2">
-        <v>4.0523396461262484</v>
+        <v>4.0523396444780468</v>
       </c>
       <c r="AS2">
-        <v>4.705831448158972</v>
+        <v>4.7058314323549144</v>
       </c>
       <c r="AT2">
-        <v>1.9452776896534205</v>
+        <v>1.9452777097538985</v>
       </c>
       <c r="AU2">
-        <v>1.223996684544477</v>
+        <v>1.2239966871127752</v>
       </c>
       <c r="AV2">
-        <v>2.8281841104972796</v>
+        <v>2.8281841199950435</v>
       </c>
       <c r="AW2">
-        <v>1.4089484206420062</v>
+        <v>1.4089484009383082</v>
       </c>
       <c r="AX2">
-        <v>4.3487247326492628</v>
+        <v>4.348724718013421</v>
       </c>
       <c r="AY2">
-        <v>4.740717207018557</v>
+        <v>4.7407171962166723</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -653,154 +659,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>1.7717248128992023</v>
+      </c>
+      <c r="C3">
+        <v>1.6527588625563849</v>
+      </c>
+      <c r="D3">
+        <v>3.4844253832631447</v>
+      </c>
+      <c r="E3">
+        <v>4.3265038210976803</v>
+      </c>
+      <c r="F3">
+        <v>1.2848182698940034</v>
+      </c>
+      <c r="G3">
+        <v>2.7082731579343258</v>
+      </c>
+      <c r="H3">
+        <v>-0.52935006291649189</v>
+      </c>
+      <c r="I3">
+        <v>0.65492450157862214</v>
+      </c>
+      <c r="J3">
+        <v>3.6336408570116996</v>
+      </c>
+      <c r="K3">
+        <v>4.1560907167952319</v>
+      </c>
+      <c r="L3">
+        <v>2.9899291474747547</v>
+      </c>
+      <c r="M3">
+        <v>-0.65736301159951083</v>
+      </c>
+      <c r="N3">
         <v>1.6688906381123014</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>-1.3172335172622707</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>2.9134055468808215</v>
+      </c>
+      <c r="Q3">
+        <v>1.0689586276465455</v>
+      </c>
+      <c r="R3">
+        <v>0.67302120142693267</v>
+      </c>
+      <c r="S3">
+        <v>3.1627970687633282</v>
+      </c>
+      <c r="T3">
+        <v>3.291078351304292</v>
+      </c>
+      <c r="U3">
+        <v>1.7994179259918606</v>
+      </c>
+      <c r="V3">
+        <v>2.0842984568913994</v>
+      </c>
+      <c r="W3">
+        <v>0.31038044462466174</v>
+      </c>
+      <c r="X3">
+        <v>-0.67316853162121315</v>
+      </c>
+      <c r="Y3">
+        <v>4.5217030656736164</v>
+      </c>
+      <c r="Z3">
+        <v>2.450442097689026</v>
+      </c>
+      <c r="AA3">
+        <v>4.2995481668137199</v>
+      </c>
+      <c r="AB3">
+        <v>3.8050208948390942</v>
+      </c>
+      <c r="AC3">
+        <v>4.7593203556387902</v>
+      </c>
+      <c r="AD3">
+        <v>5.3679812667446427</v>
+      </c>
+      <c r="AE3">
+        <v>3.2274881369200337</v>
+      </c>
+      <c r="AF3">
+        <v>2.8498907230522019</v>
+      </c>
+      <c r="AG3">
+        <v>1.9755440269470959</v>
+      </c>
+      <c r="AH3">
+        <v>1.2938535197814378</v>
+      </c>
+      <c r="AI3">
+        <v>4.184265735388716</v>
+      </c>
+      <c r="AJ3">
+        <v>4.9561820738195639</v>
+      </c>
+      <c r="AK3">
+        <v>3.3146275191367334</v>
+      </c>
+      <c r="AL3">
+        <v>2.2713936471075376</v>
+      </c>
+      <c r="AM3">
         <v>3.1385564478826642</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>-0.68186776113077985</v>
       </c>
-      <c r="F3">
-        <v>1.2848182753785446</v>
-      </c>
-      <c r="G3">
-        <v>2.7082731620514595</v>
-      </c>
-      <c r="H3">
-        <v>-0.52935006523351402</v>
-      </c>
-      <c r="I3">
-        <v>0.65492450460276597</v>
-      </c>
-      <c r="J3">
-        <v>3.6336408697465785</v>
-      </c>
-      <c r="K3">
-        <v>4.1560907178663991</v>
-      </c>
-      <c r="L3">
-        <v>2.9899291537379749</v>
-      </c>
-      <c r="M3">
-        <v>-0.65727521539619072</v>
-      </c>
-      <c r="N3">
-        <v>1.6688906401766239</v>
-      </c>
-      <c r="O3">
-        <v>-1.3172335167606883</v>
-      </c>
-      <c r="P3">
-        <v>2.9134055586525305</v>
-      </c>
-      <c r="Q3">
-        <v>1.0689586344850948</v>
-      </c>
-      <c r="R3">
-        <v>0.67302122257660357</v>
-      </c>
-      <c r="S3">
-        <v>3.1627970746108165</v>
-      </c>
-      <c r="T3">
-        <v>3.2910783563284434</v>
-      </c>
-      <c r="U3">
-        <v>1.7994179325835216</v>
-      </c>
-      <c r="V3">
-        <v>2.0842984645160945</v>
-      </c>
-      <c r="W3">
-        <v>0.31038044766639988</v>
-      </c>
-      <c r="X3">
-        <v>-0.67316852809368621</v>
-      </c>
-      <c r="Y3">
-        <v>4.5217030757952559</v>
-      </c>
-      <c r="Z3">
-        <v>2.450442102112905</v>
-      </c>
-      <c r="AA3">
-        <v>4.2995481595653269</v>
-      </c>
-      <c r="AB3">
-        <v>3.8050209045794863</v>
-      </c>
-      <c r="AC3">
-        <v>4.7593203805882771</v>
-      </c>
-      <c r="AD3">
-        <v>5.3679812975598349</v>
-      </c>
-      <c r="AE3">
-        <v>3.2274881596184795</v>
-      </c>
-      <c r="AF3">
-        <v>2.8498907371622821</v>
-      </c>
-      <c r="AG3">
-        <v>1.9755440369467046</v>
-      </c>
-      <c r="AH3">
-        <v>1.2938535276086778</v>
-      </c>
-      <c r="AI3">
-        <v>4.1842657819166806</v>
-      </c>
-      <c r="AJ3">
-        <v>4.9561820890505146</v>
-      </c>
-      <c r="AK3">
-        <v>3.3146275537310652</v>
-      </c>
-      <c r="AL3">
-        <v>2.2713936593605917</v>
-      </c>
-      <c r="AM3">
-        <v>3.1385564648621238</v>
-      </c>
-      <c r="AN3">
-        <v>-0.68186775698850155</v>
-      </c>
       <c r="AO3">
-        <v>5.0441087192812661</v>
+        <v>5.0441086806787192</v>
       </c>
       <c r="AP3">
-        <v>0.80565098904800336</v>
+        <v>0.80565098198635432</v>
       </c>
       <c r="AQ3">
-        <v>2.1324821541115404</v>
+        <v>2.1324821486706291</v>
       </c>
       <c r="AR3">
-        <v>5.3094175605664509</v>
+        <v>5.3094175794401384</v>
       </c>
       <c r="AS3">
-        <v>3.4553290347473391</v>
+        <v>3.4553290406566668</v>
       </c>
       <c r="AT3">
-        <v>3.0317548223759996</v>
+        <v>3.0317548051467478</v>
       </c>
       <c r="AU3">
-        <v>1.9517720651875872</v>
+        <v>1.9517720248837207</v>
       </c>
       <c r="AV3">
-        <v>1.8284154780496249</v>
+        <v>1.828415459088466</v>
       </c>
       <c r="AW3">
-        <v>1.6675809272946702</v>
+        <v>1.6675807250148569</v>
       </c>
       <c r="AX3">
-        <v>2.9557218351916741</v>
+        <v>2.9557217886930673</v>
       </c>
       <c r="AY3">
-        <v>5.5440400478477709</v>
+        <v>5.5440400371160656</v>
       </c>
     </row>
   </sheetData>
